--- a/Lineups/lineup_survey_results.xlsx
+++ b/Lineups/lineup_survey_results.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1941220_ed_ac_uk/Documents/Year 5/Dissertation/Code/MMath_Y5_Dissertation/Lineups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7420FE8-E67C-4657-97F5-1A5EB4F0989B}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{881B352B-56C4-4DD8-8B8E-0BC8478FCA9B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cleaned_data" sheetId="1" r:id="rId1"/>
     <sheet name="full_data" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="251">
   <si>
     <t>ID</t>
   </si>
@@ -779,6 +783,15 @@
   </si>
   <si>
     <t>LU8_comments</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Stats Y2</t>
   </si>
 </sst>
 </file>
@@ -786,7 +799,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -823,12 +836,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,7 +940,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -928,34 +949,19 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -967,7 +973,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -976,7 +982,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -985,7 +991,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -994,7 +1000,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1003,10 +1009,25 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1030,6 +1051,1883 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Mayez Haris" refreshedDate="45313.539649999999" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="57" xr:uid="{9800BCAF-FC90-4A1F-B493-74E2406460E2}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="27">
+    <cacheField name="Stats Y2" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Yes"/>
+        <s v="No"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Level of study" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Undergraduate"/>
+        <s v="Postgraduate"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Year of study" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LU1" numFmtId="1">
+      <sharedItems count="3">
+        <s v="8"/>
+        <s v="3"/>
+        <s v="7"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="LU1_confidence" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="LU1_comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LU2" numFmtId="1">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="LU2_confidence" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="LU2_comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LU3" numFmtId="1">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="LU3_confidence" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="LU3_comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LU4" numFmtId="1">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="LU4_confidence" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="LU4_comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LU5" numFmtId="1">
+      <sharedItems count="2">
+        <s v="7"/>
+        <s v="5"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="LU5_confidence" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="LU5_comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LU6" numFmtId="1">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="LU6_confidence" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="LU6_comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LU7" numFmtId="1">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="LU7_confidence" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="LU7_comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="LU8" numFmtId="1">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="LU8_confidence" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="LU8_comments" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="57">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="It looks parabolic, whilst the others seem more linear"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="Similar to the previous one; 9 has no clear linear form, while the others at least try."/>
+    <n v="0"/>
+    <s v="2"/>
+    <s v="They all seem to have different types of random noise, all contributing to things being fairly similar looking"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="Things seem clustered in the same way, with enough different sorts of random noise to still seem the same."/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Very clearly for 7, different lines that I choose will have a different distribution of points. "/>
+    <s v="5"/>
+    <s v="3"/>
+    <s v="Has got a very distinct shape for the rest of them, that can't be simply chalked up to outliers messing with the data"/>
+    <s v="6"/>
+    <s v="3"/>
+    <s v="I feel it's either 6, or they're all the same. The upward trajectory towards the tail end of 6 is throwing me a bit, hence telling me it should probably the one that's slightly different."/>
+    <n v="0"/>
+    <s v="2"/>
+    <s v="Tougher to see without the red line, but they do seem to be randomly distributed from the same guy"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="It looks parabolic while the others look straight"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="Each of the others curve into directions (at least a little) while 9 only curves in one. "/>
+    <n v="0"/>
+    <s v="3"/>
+    <s v="They seem to have similar random noise and similar fittings."/>
+    <s v="2"/>
+    <s v="2"/>
+    <s v="2 has by eye a more significant portion of the data points below the dotted line, but they all look to be pretty similar."/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="The others all look close to straight with some variation, but in 7 there is a clear trend."/>
+    <s v="5"/>
+    <s v="3"/>
+    <s v="5 has the most what I can only describe as &quot;dramatic&quot; curve compared to the others."/>
+    <s v="6"/>
+    <s v="3"/>
+    <s v="The red line in the plot of 6 is noticeably steeper than the others. "/>
+    <s v="5"/>
+    <s v="2"/>
+    <s v="The points at height 1.5 are more spread out than in the other plots."/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Quadratic fit line, points higher up on the extremes compared to middle values"/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="Sharpest angle change in fit line"/>
+    <s v="6"/>
+    <s v="4"/>
+    <s v="After the bunch of points on the left side, it is the only line which jumps above the x axis which then crosses down under the x axis"/>
+    <s v="2"/>
+    <s v="2"/>
+    <s v="On the left of the plot, the points seem to all be below the x axis whereas the other plots have some above and below"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Clearest non constant variance as the points at the extremes are far above the x axis"/>
+    <s v="5"/>
+    <s v="3"/>
+    <s v="The plots all look similar towards the middle so this plot looked the most different to the others at the extremes"/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v=":)"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v=":("/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <s v="2"/>
+    <s v="4"/>
+    <s v=":("/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v=":3"/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="The red line is very bendy compared to the others"/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="The red line is very bendy"/>
+    <s v="6"/>
+    <s v="4"/>
+    <s v="The red line moves away from the centre line in the middle, rather than the tail end"/>
+    <n v="0"/>
+    <n v="1"/>
+    <s v="They all have similar distributions"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Very bendy red line"/>
+    <s v="2"/>
+    <s v="4"/>
+    <m/>
+    <s v="6"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="negative x values are more positive"/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <s v="6"/>
+    <s v="3"/>
+    <s v="weird red line"/>
+    <s v="2"/>
+    <s v="3"/>
+    <s v="higher central mass at x=0"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="higher positive points at at extreme x values"/>
+    <s v="9"/>
+    <s v="2"/>
+    <s v="not as densely packed_x000a_"/>
+    <s v="9"/>
+    <n v="1"/>
+    <s v="least densely packed"/>
+    <s v="8"/>
+    <n v="1"/>
+    <s v="least densely packed in the bottom centre blob"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="smiley :)"/>
+    <s v="9"/>
+    <s v="3"/>
+    <s v="frowny"/>
+    <s v="6"/>
+    <s v="2"/>
+    <s v="diverges and spends the most time away from the red line"/>
+    <s v="1"/>
+    <n v="1"/>
+    <s v="more noise"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="big trough"/>
+    <s v="5"/>
+    <s v="3"/>
+    <s v="moves drastically away at both start and end"/>
+    <s v="3"/>
+    <n v="1"/>
+    <s v="more spread out"/>
+    <s v="5"/>
+    <n v="1"/>
+    <s v="concentrated top line"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="8 is the only plot which resembles a parabola."/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="9 is, again, the only one that is a parabola. Other look more linear."/>
+    <n v="0"/>
+    <s v="2"/>
+    <s v="They all look the same (they cluster at one spot)."/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="The other resemble a line more."/>
+    <s v="5"/>
+    <s v="2"/>
+    <s v="5 is the curviest."/>
+    <s v="6"/>
+    <s v="3"/>
+    <s v="6 curves upwards the most"/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="The large deviations at each tail"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="Large deviations at each tail"/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="8"/>
+    <s v="2"/>
+    <s v="low residuals at each tail"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="uptrends in residual sizes at tails"/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 3"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Its significantly curved."/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="Its curved unlike any other."/>
+    <s v="5"/>
+    <s v="2"/>
+    <s v="It's the least straight where there is a large concentration of data."/>
+    <s v="2"/>
+    <n v="1"/>
+    <s v="The data curved downward on the right, unlike the other plots where it more or less condenses on the axis."/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="It is W-shaped."/>
+    <n v="0"/>
+    <s v="4"/>
+    <s v="n/a"/>
+    <s v="6"/>
+    <n v="1"/>
+    <s v="Goes completely up on the right, may not be significant as it relies on a few points."/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="All the others are distributed around a straight line, but 8 are distributed round a curve"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="It has the most significant deviation"/>
+    <s v="6"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="W shape"/>
+    <s v="2"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 3"/>
+    <x v="0"/>
+    <s v="4"/>
+    <m/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="It tapers off on both ends of the graph creating a curve for the line of best fit "/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="For the same reason as before, some of the graphs taper off slightly however the line of best fit for 9 is a curve."/>
+    <s v="6"/>
+    <n v="5"/>
+    <s v="line of best fit curves up above the x-axis and then curves back down below it"/>
+    <s v="5"/>
+    <s v="3"/>
+    <s v="The data seems a lot less clustered"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="It is a lot more curved than the others"/>
+    <s v="5"/>
+    <n v="5"/>
+    <m/>
+    <s v="6"/>
+    <s v="3"/>
+    <m/>
+    <s v="7"/>
+    <s v="3"/>
+    <s v="data seems a lot more spreadout"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="The line of best fit"/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <s v="6"/>
+    <s v="4"/>
+    <m/>
+    <s v="3"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="5"/>
+    <s v="4"/>
+    <m/>
+    <s v="6"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="More curvier"/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="More curvier "/>
+    <s v="6"/>
+    <n v="5"/>
+    <s v="Jagged"/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Big parabola "/>
+    <s v="5"/>
+    <n v="5"/>
+    <m/>
+    <s v="6"/>
+    <n v="5"/>
+    <m/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <s v="4"/>
+    <m/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <s v="7"/>
+    <s v="3"/>
+    <m/>
+    <s v="2"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <m/>
+    <s v="5"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 3"/>
+    <x v="0"/>
+    <s v="4"/>
+    <m/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <s v="4"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <m/>
+    <s v="2"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="It is curvy"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="It is more curvy "/>
+    <s v="4"/>
+    <s v="2"/>
+    <s v="It goes up"/>
+    <s v="2"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="5"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="The only u-shaped red trend line"/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="the only n-shaped red trend line"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="the only w-shaped red trend line"/>
+    <s v="5"/>
+    <s v="3"/>
+    <s v="kind of s-shaped red trend line, but also number 2 has w-shaped so unsure"/>
+    <s v="6"/>
+    <s v="4"/>
+    <s v="big upwards section at the end"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="9"/>
+    <s v="2"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="2"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="It's non-linear."/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="non-linear"/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <s v="7"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="It has the largest movement away from the dotted line."/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="This red line has the largest difference from the dotted line."/>
+    <s v="4"/>
+    <n v="5"/>
+    <s v="It is the only plot that moves above the dotted line."/>
+    <s v="2"/>
+    <n v="5"/>
+    <s v="It has a large cluster of points below the line, where the others seeimgly have clusters of points randomly scattered."/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="It is a very significant parabolic curve, all the other curves are almosf straight."/>
+    <s v="5"/>
+    <n v="5"/>
+    <s v="Largest movement from a horizontal line, which the others seemingly follow."/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <s v="The most significant cluster at the top of graph."/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 3"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Looks like a curve while the rest are lines"/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="Curve and not line"/>
+    <s v="6"/>
+    <s v="3"/>
+    <s v="Looks a bit like a curve"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Curve"/>
+    <s v="2"/>
+    <s v="4"/>
+    <s v="Parabola "/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <s v="9"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <s v="2"/>
+    <s v="The other plots have roughly uniform distribution of points above and below the x axis, while 8 has more above at the extremes, and more below in the centre."/>
+    <s v="9"/>
+    <s v="2"/>
+    <s v="As with last time (but the opposite way round), the number of points below the axis spikes at the edges "/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <s v="Points seem to follow a fitted curve must more closely than any other plots"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <s v="5"/>
+    <n v="1"/>
+    <s v="Wider spread of points at around 1.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="It is quadratic. "/>
+    <s v="8"/>
+    <s v="4"/>
+    <s v="Quadratic"/>
+    <s v="4"/>
+    <s v="3"/>
+    <s v="Exponential, however 6 also looks like it stands out. "/>
+    <s v="5"/>
+    <s v="3"/>
+    <s v="Slight fanning towards the right. "/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Clear quadratic trend. "/>
+    <s v="4"/>
+    <s v="3"/>
+    <s v="Has the least trend. "/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <s v="3"/>
+    <s v="It's a curve rather than a line"/>
+    <s v="6"/>
+    <s v="3"/>
+    <s v="the line seems more random"/>
+    <s v="4"/>
+    <s v="3"/>
+    <s v="It's the only one with a vaguelty upward trajectory"/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="2"/>
+    <s v="The beginning and end of the line are the most extreme"/>
+    <s v="2"/>
+    <n v="1"/>
+    <s v="There is a row of dots along the top that is more consistant than the rest"/>
+    <s v="7"/>
+    <n v="1"/>
+    <s v="7 has the smoothest line"/>
+    <s v="5"/>
+    <n v="1"/>
+    <s v="The line along the top is the most consistant"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="The line of best fit is not linear"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="This was the plot with the least linear line of best fit"/>
+    <s v="3"/>
+    <s v="2"/>
+    <s v="The data seems a little more spread out"/>
+    <s v="3"/>
+    <s v="2"/>
+    <s v="The data is slighty more spread out"/>
+    <x v="0"/>
+    <s v="3"/>
+    <s v="The line of best fit is not horizontal"/>
+    <s v="5"/>
+    <s v="2"/>
+    <s v="The line of best fit, seems the least horizontal"/>
+    <s v="6"/>
+    <n v="1"/>
+    <s v="The data seems the most spread out"/>
+    <s v="5"/>
+    <s v="3"/>
+    <s v="This data seems to be the most linear"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="With the other plots the red line appears to be linear, while in the case of the chosen QQ-plot the red linear looks quadratic."/>
+    <s v="9"/>
+    <s v="3"/>
+    <s v="Weighting on the tails appear to be different compared to all the other plots. "/>
+    <s v="5"/>
+    <s v="3"/>
+    <s v="Has a weird curve around the centre of mass. "/>
+    <s v="6"/>
+    <s v="2"/>
+    <s v="How far away the points are on the upper right hand side."/>
+    <x v="0"/>
+    <s v="4"/>
+    <m/>
+    <s v="5"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="The red curve stands out."/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="The red curve is the only one that makes a cone."/>
+    <s v="6"/>
+    <s v="2"/>
+    <s v="The red curve has more of a bump in the middle of the plot compared to the others."/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <s v="The red curve seems to not fit the same pattern as the rest."/>
+    <s v="8"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="2"/>
+    <m/>
+    <s v="9"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <s v="2"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <s v="2"/>
+    <m/>
+    <s v="9"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <s v="2"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="2"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <s v="4"/>
+    <m/>
+    <s v="9"/>
+    <n v="5"/>
+    <m/>
+    <s v="6"/>
+    <n v="5"/>
+    <m/>
+    <s v="5"/>
+    <n v="5"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="5"/>
+    <n v="5"/>
+    <m/>
+    <s v="7"/>
+    <n v="5"/>
+    <m/>
+    <s v="4"/>
+    <n v="5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <s v="3"/>
+    <s v="curved red line"/>
+    <s v="9"/>
+    <s v="3"/>
+    <s v="curved red line"/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <s v="curved red line "/>
+    <s v="5"/>
+    <s v="2"/>
+    <s v="red line"/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="9"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="5"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <s v="9"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="9"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <s v="2"/>
+    <m/>
+    <s v="2"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="2"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <s v="8"/>
+    <n v="1"/>
+    <m/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <s v="2"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="having a strong trend of quadratic "/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="Same as the previous quesiton "/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="A strong trend "/>
+    <s v="5"/>
+    <s v="4"/>
+    <s v="It follows x^3 approximately "/>
+    <s v="6"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="9"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <s v="2"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="2"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <s v="9"/>
+    <s v="2"/>
+    <m/>
+    <s v="3"/>
+    <s v="2"/>
+    <m/>
+    <x v="1"/>
+    <s v="3"/>
+    <m/>
+    <s v="2"/>
+    <s v="3"/>
+    <m/>
+    <s v="5"/>
+    <s v="3"/>
+    <m/>
+    <s v="8"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Quadratic"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="Quadratic"/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Quadratic"/>
+    <s v="2"/>
+    <s v="4"/>
+    <s v="Quadratic"/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="9"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <s v="9"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="9"/>
+    <n v="5"/>
+    <m/>
+    <s v="7"/>
+    <n v="5"/>
+    <m/>
+    <s v="2"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="5"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="4"/>
+    <m/>
+    <s v="3"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="red line not straight"/>
+    <s v="9"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="2"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="3"/>
+    <s v="3"/>
+    <s v="kinda fan out"/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="It looks quadratic as opposed to linear "/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="5"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <s v="3"/>
+    <s v="Fitted line has the most curvature"/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <s v="7"/>
+    <s v="2"/>
+    <s v="Curves up rather than down"/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="5"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Points are following a pattern."/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="The pattern is followed"/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <s v="Trend in the residuals"/>
+    <s v="9"/>
+    <s v="3"/>
+    <s v="Trend in the residuals "/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <s v="8"/>
+    <s v="2"/>
+    <s v="There seems to be a greater number of negative residuals "/>
+    <x v="0"/>
+    <s v="3"/>
+    <s v="Clear trend in square root residuals"/>
+    <s v="2"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="9"/>
+    <s v="3"/>
+    <m/>
+    <s v="4"/>
+    <s v="2"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="2"/>
+    <n v="1"/>
+    <m/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="9"/>
+    <s v="3"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <s v="2"/>
+    <n v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <s v="2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <m/>
+    <s v="9"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <m/>
+    <s v="5"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Seems like this one is quadratic, while others are linear"/>
+    <s v="9"/>
+    <n v="5"/>
+    <m/>
+    <s v="4"/>
+    <s v="4"/>
+    <m/>
+    <s v="5"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="5"/>
+    <n v="5"/>
+    <s v="This one seems like cubic"/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <s v="5"/>
+    <s v="3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <s v="3"/>
+    <s v="ContAiminated data "/>
+    <s v="9"/>
+    <s v="2"/>
+    <m/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <n v="0"/>
+    <s v="2"/>
+    <m/>
+    <x v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="5"/>
+    <s v="2"/>
+    <m/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <s v="4"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="Curved line rather than straight line for residuals vs fitted"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="Tail ends both go in same direction unlike others for residuals vs fitted"/>
+    <s v="8"/>
+    <s v="2"/>
+    <s v="Only one that sticks to the same line?"/>
+    <n v="0"/>
+    <s v="2"/>
+    <s v="All seem similar in terms of residual vs fitted"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="Follows a different trend to the rest for line of best fit"/>
+    <s v="5"/>
+    <s v="2"/>
+    <s v="Tail ends more pronounced compared to the rest?"/>
+    <s v="6"/>
+    <s v="2"/>
+    <s v="Bump goes up more closer in regards to line of best fit compared to rest of residuals vs fitted"/>
+    <n v="0"/>
+    <s v="3"/>
+    <s v="They all seem different but not to a great degree compared to another one"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="It has a parabola shape instead of a straight line-ish shape"/>
+    <s v="9"/>
+    <s v="4"/>
+    <s v="It is not so evenly concentrated"/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <s v="2"/>
+    <s v="3"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <m/>
+    <s v="5"/>
+    <n v="1"/>
+    <m/>
+    <s v="6"/>
+    <n v="1"/>
+    <m/>
+    <s v="8"/>
+    <n v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Year 5"/>
+    <x v="0"/>
+    <s v="4"/>
+    <s v="There seems to be a quadratic relationship in the residuals vs fitted plot in plot 8 indicating that the underlying relationship is in fact not linear"/>
+    <s v="9"/>
+    <n v="5"/>
+    <s v="Looks quadratic "/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <s v="4"/>
+    <m/>
+    <x v="0"/>
+    <n v="5"/>
+    <s v="Looks like some x^4 shenanigans is going on here "/>
+    <s v="5"/>
+    <s v="4"/>
+    <s v="Line go cubic "/>
+    <n v="0"/>
+    <s v="3"/>
+    <m/>
+    <n v="0"/>
+    <n v="5"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49140863-B148-48B0-8B18-3DFD0D63A5F0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="27">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="15" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Stats Y2" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AA58" totalsRowShown="0">
   <autoFilter ref="A1:AA58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -1037,30 +2935,30 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Stats Y2" dataDxfId="60"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Level of study" dataDxfId="59"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Year of study" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LU1" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="LU1_confidence" dataDxfId="57"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="LU1_comments" dataDxfId="56"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="LU2" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="LU2_confidence" dataDxfId="55"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="LU2_comments" dataDxfId="54"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="LU3" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="LU3_confidence" dataDxfId="53"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="LU3_comments" dataDxfId="52"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="LU4" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="LU4_confidence" dataDxfId="51"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="LU4_comments" dataDxfId="50"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="LU5" dataDxfId="37"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="LU5_confidence" dataDxfId="49"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="LU5_comments" dataDxfId="48"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="LU6" dataDxfId="36"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="LU6_confidence" dataDxfId="47"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="LU6_comments" dataDxfId="46"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="LU7" dataDxfId="35"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="LU7_confidence" dataDxfId="45"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="LU7_comments" dataDxfId="44"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="LU8" dataDxfId="34"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LU8_confidence" dataDxfId="43"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="LU8_comments" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="LU1" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="LU1_confidence" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="LU1_comments" dataDxfId="55"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="LU2" dataDxfId="54"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="LU2_confidence" dataDxfId="53"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="LU2_comments" dataDxfId="52"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="LU3" dataDxfId="51"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="LU3_confidence" dataDxfId="50"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="LU3_comments" dataDxfId="49"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="LU4" dataDxfId="48"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="LU4_confidence" dataDxfId="47"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="LU4_comments" dataDxfId="46"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="LU5" dataDxfId="45"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="LU5_confidence" dataDxfId="44"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="LU5_comments" dataDxfId="43"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="LU6" dataDxfId="42"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="LU6_confidence" dataDxfId="41"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="LU6_comments" dataDxfId="40"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="LU7" dataDxfId="39"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="LU7_confidence" dataDxfId="38"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="LU7_comments" dataDxfId="37"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="LU8" dataDxfId="36"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="LU8_confidence" dataDxfId="35"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="LU8_comments" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1408,8 +3306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:AA58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10206,4 +12104,101 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30493275-168B-4CB5-9904-19906AC9AF6C}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="8">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Lineups/lineup_survey_results.xlsx
+++ b/Lineups/lineup_survey_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1941220_ed_ac_uk/Documents/Year 5/Dissertation/Code/MMath_Y5_Dissertation/Lineups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="858" documentId="6_{59F0BE57-53DC-40AD-848C-87988135253A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99C12399-01F8-46C0-9778-277800B41DE8}"/>
+  <xr:revisionPtr revIDLastSave="880" documentId="6_{59F0BE57-53DC-40AD-848C-87988135253A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7033F56F-E019-4940-8CC8-74644FD0CA24}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Tables" sheetId="3" r:id="rId4"/>
     <sheet name="p-values" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -738,6 +738,9 @@
     <t>LU2</t>
   </si>
   <si>
+    <t>LU2_correct</t>
+  </si>
+  <si>
     <t>LU2_confidence</t>
   </si>
   <si>
@@ -747,6 +750,9 @@
     <t>LU3</t>
   </si>
   <si>
+    <t>LU3_correct</t>
+  </si>
+  <si>
     <t>LU3_confidence</t>
   </si>
   <si>
@@ -756,6 +762,9 @@
     <t>LU4</t>
   </si>
   <si>
+    <t>LU4_correct</t>
+  </si>
+  <si>
     <t>LU4_confidence</t>
   </si>
   <si>
@@ -774,6 +783,9 @@
     <t>LU6</t>
   </si>
   <si>
+    <t>LU6_correct</t>
+  </si>
+  <si>
     <t>LU6_confidence</t>
   </si>
   <si>
@@ -783,6 +795,9 @@
     <t>LU7</t>
   </si>
   <si>
+    <t>LU7_correct</t>
+  </si>
+  <si>
     <t>LU7_confidence</t>
   </si>
   <si>
@@ -792,90 +807,93 @@
     <t>LU8</t>
   </si>
   <si>
+    <t>LU8_correct</t>
+  </si>
+  <si>
     <t>LU8_confidence</t>
   </si>
   <si>
     <t>LU8_comments</t>
   </si>
   <si>
+    <t>RvF Lineup 1</t>
+  </si>
+  <si>
+    <t>RvF Lineup 2</t>
+  </si>
+  <si>
+    <t>RvF Lineup 3</t>
+  </si>
+  <si>
+    <t>SL Lineup 1</t>
+  </si>
+  <si>
+    <t>SL Lineup 2</t>
+  </si>
+  <si>
+    <t>SL Lineup 3</t>
+  </si>
+  <si>
     <t>Row Labels</t>
   </si>
   <si>
+    <t>Count of Stats Y2</t>
+  </si>
+  <si>
+    <t>Count of LU2</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Count of LU2_confidence</t>
+  </si>
+  <si>
+    <t>Count of LU3</t>
+  </si>
+  <si>
+    <t>Count of LU3_confidence</t>
+  </si>
+  <si>
+    <t>Count of LU4</t>
+  </si>
+  <si>
+    <t>Count of LU4_confidence</t>
+  </si>
+  <si>
+    <t>Count of LU6</t>
+  </si>
+  <si>
+    <t>Count of LU6_confidence</t>
+  </si>
+  <si>
+    <t>Count of LU7</t>
+  </si>
+  <si>
+    <t>Count of LU7_confidence</t>
+  </si>
+  <si>
+    <t>Count of LU8</t>
+  </si>
+  <si>
+    <t>Count of LU8_confidence</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Count of Stats Y2</t>
-  </si>
-  <si>
-    <t>Count of LU2</t>
-  </si>
-  <si>
-    <t>Count of LU3_confidence</t>
-  </si>
-  <si>
-    <t>Count of LU2_confidence</t>
-  </si>
-  <si>
-    <t>Count of LU4</t>
-  </si>
-  <si>
-    <t>Count of LU4_confidence</t>
-  </si>
-  <si>
-    <t>Count of LU6</t>
-  </si>
-  <si>
     <t>(blank)</t>
   </si>
   <si>
-    <t>Count of LU6_confidence</t>
-  </si>
-  <si>
-    <t>Count of LU7</t>
-  </si>
-  <si>
-    <t>Count of LU7_confidence</t>
-  </si>
-  <si>
-    <t>Count of LU8</t>
-  </si>
-  <si>
-    <t>Count of LU8_confidence</t>
-  </si>
-  <si>
-    <t>LU2_correct</t>
-  </si>
-  <si>
-    <t>LU3_correct</t>
-  </si>
-  <si>
-    <t>LU4_correct</t>
-  </si>
-  <si>
-    <t>LU6_correct</t>
-  </si>
-  <si>
-    <t>LU7_correct</t>
-  </si>
-  <si>
-    <t>LU8_correct</t>
-  </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>Incorrect</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
     <t>Count of LU3_correct</t>
   </si>
   <si>
-    <t>Count of LU3</t>
-  </si>
-  <si>
     <t>Count of LU4_correct</t>
   </si>
   <si>
@@ -888,6 +906,9 @@
     <t>Count of LU8_correct</t>
   </si>
   <si>
+    <t>Count of LU5_confidence</t>
+  </si>
+  <si>
     <t>Lineup</t>
   </si>
   <si>
@@ -898,27 +919,6 @@
   </si>
   <si>
     <t>Difference</t>
-  </si>
-  <si>
-    <t>RvF Lineup 2</t>
-  </si>
-  <si>
-    <t>RvF Lineup 3</t>
-  </si>
-  <si>
-    <t>SL Lineup 2</t>
-  </si>
-  <si>
-    <t>SL Lineup 3</t>
-  </si>
-  <si>
-    <t>Count of LU5_confidence</t>
-  </si>
-  <si>
-    <t>RvF Lineup 1</t>
-  </si>
-  <si>
-    <t>SL Lineup 1</t>
   </si>
 </sst>
 </file>
@@ -6054,24 +6054,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC887956-AEDD-4F14-9A95-B959B0D2A0DC}" name="PivotTable25" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="AN19:AQ23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49140863-B148-48B0-8B18-3DFD0D63A5F0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A4:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
       <items count="3">
         <item x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="2"/>
         <item x="1"/>
@@ -6093,42 +6093,16 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6143,13 +6117,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6162,909 +6130,58 @@
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="22"/>
+  <rowFields count="3">
+    <field x="1"/>
+    <field x="0"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <pageFields count="2">
     <pageField fld="3" hier="-1"/>
     <pageField fld="18" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Count of LU6_correct" fld="22" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{753677C3-F058-4148-92A6-0A8DDFED1270}" name="PivotTable29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="AZ4:BC12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="25"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU7" fld="25" subtotal="count" baseField="25" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF773253-527A-4C93-8212-DD441631D1B4}" name="PivotTable30" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="AZ19:BC23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="26"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU7_correct" fld="26" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C83BDCB7-6EAF-463E-89C9-2B5738B1FCEB}" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="AH4:AK11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="16"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU4_confidence" fld="16" subtotal="count" baseField="16" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80ABE4A1-8637-48F3-97B8-8664E12B5469}" name="PivotTable34" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="BL4:BO14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="29"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU8" fld="29" subtotal="count" baseField="29" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B193623-1178-4319-8CF0-98BAD355A952}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="I19:L26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU2_confidence" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Stats Y2" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7086,1106 +6203,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{913AF7B1-6992-4A82-AB5C-5A09A0C97B59}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="I4:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU2_confidence" fld="8" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5ED368F-E008-4F76-95DD-7DEA5F0B271D}" name="PivotTable21" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="AC4:AF13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="14"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU4" fld="14" subtotal="count" baseField="14" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF122462-739E-4496-ACB6-38E514DAF792}" name="PivotTable28" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="BE4:BH11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="27"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU7_confidence" fld="27" subtotal="count" baseField="27" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D9F6B5D-D916-4A8D-B1B7-DEBA13F4B25F}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="D19:G23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="7"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU2" fld="6" subtotal="count" baseField="0" baseItem="284"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="7" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C1B86F3-EE5B-4616-9101-7FDD1093349F}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A32:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item sd="0" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item sd="0" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Stats Y2" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4BDCCA0-7B02-4C4B-A6C6-4E9B420A3D87}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="U19:X26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU3_confidence" fld="12" subtotal="count" baseField="12" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{049FBBEA-F529-44AE-A609-F027E0573601}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="P4:S14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="11"/>
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="9">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU3" fld="10" subtotal="count" baseField="10" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CADE30E5-BF45-4CAC-B827-268B136A564F}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="G50:H56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
@@ -8588,159 +6606,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7450B8F-B8A0-428A-9A71-04598C328E99}" name="PivotTable23" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="AH19:AK26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="16"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU4_confidence" fld="16" subtotal="count" baseField="16" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0185DB8F-4D63-4C06-921F-0B01BEA33D13}" name="PivotTable32" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="BQ19:BT26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
@@ -8919,33 +6785,25 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2F6F9F3-ADA3-4059-8359-C3B361DB3FFE}" name="PivotTable22" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="AC19:AF23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8143391-F066-4724-8592-D3312A1E5CAE}" name="PivotTable27" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="AS4:AV11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
+    <pivotField showAll="0" sortType="descending">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
         <item x="1"/>
         <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item h="1" m="1" x="4"/>
@@ -8959,156 +6817,8 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="15"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU4_correct" fld="15" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{503D1B91-C427-4CF0-A963-D72BDB419271}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A50:D58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
         <item x="4"/>
@@ -9121,24 +6831,30 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
@@ -9152,190 +6868,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="15"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU4_correct" fld="15" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{199D6D3D-BC32-45D6-8C24-693C7AD2F7B4}" name="PivotTable24" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="AS19:AV36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item sd="0" x="1"/>
-        <item x="2"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="4"/>
-        <item x="0"/>
-        <item sd="0" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
@@ -9358,29 +6890,16 @@
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="21"/>
+  <rowFields count="1">
     <field x="23"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
     <i>
       <x v="2"/>
     </i>
@@ -9390,30 +6909,12 @@
     <i>
       <x v="4"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="0"/>
+    <field x="1"/>
   </colFields>
   <colItems count="3">
     <i>
@@ -9445,25 +6946,33 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C49A497-8934-419F-9CE9-E5A7FCBD4F9C}" name="PivotTable35" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="BQ4:BT11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5ED368F-E008-4F76-95DD-7DEA5F0B271D}" name="PivotTable21" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="AC4:AF13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
-    <pivotField showAll="0" sortType="descending">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
         <item x="1"/>
         <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item h="1" m="1" x="4"/>
@@ -9477,44 +6986,60 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
+      <items count="5">
         <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
         <item x="1"/>
         <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="0"/>
         <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
         <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="5">
@@ -9529,49 +7054,22 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="31"/>
+    <field x="14"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -9587,12 +7085,18 @@
     <i>
       <x v="4"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="1"/>
+    <field x="0"/>
   </colFields>
   <colItems count="3">
     <i>
@@ -9610,7 +7114,7 @@
     <pageField fld="18" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Count of LU8_confidence" fld="31" subtotal="count" baseField="31" baseItem="0"/>
+    <dataField name="Count of LU4" fld="14" subtotal="count" baseField="14" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9624,25 +7128,33 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{383872E7-6953-4D62-8310-8E144C7DD935}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A72:C94" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF773253-527A-4C93-8212-DD441631D1B4}" name="PivotTable30" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="AZ19:BC23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
-    <pivotField showAll="0" sortType="descending">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" sortType="descending">
+    <pivotField showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
         <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item h="1" m="1" x="4"/>
@@ -9656,7 +7168,15 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
@@ -9664,16 +7184,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -9683,16 +7194,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -9726,7 +7228,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -9736,107 +7238,45 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="8"/>
-    <field x="12"/>
+  <rowFields count="1">
+    <field x="26"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="-2"/>
+    <field x="0"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
     <i>
       <x/>
     </i>
-    <i i="1">
+    <i>
       <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
     </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="3" hier="-1"/>
     <pageField fld="18" hier="-1"/>
   </pageFields>
-  <dataFields count="2">
-    <dataField name="Count of LU2_confidence" fld="8" subtotal="count" baseField="0" baseItem="380857024"/>
-    <dataField name="Count of LU3_confidence" fld="12" subtotal="count" baseField="8" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Count of LU7_correct" fld="26" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9850,33 +7290,25 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{49140863-B148-48B0-8B18-3DFD0D63A5F0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A14E7EAE-4CDA-489A-B1C9-6E07A4E20AB6}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="U4:X11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+    <pivotField showAll="0" sortType="descending">
       <items count="3">
         <item x="0"/>
-        <item sd="0" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
       <items count="3">
-        <item x="0"/>
         <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="7">
         <item h="1" m="1" x="4"/>
@@ -9892,11 +7324,29 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -9927,55 +7377,49 @@
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="3">
-    <field x="1"/>
-    <field x="0"/>
-    <field x="2"/>
+  <rowFields count="1">
+    <field x="12"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
       <x v="3"/>
     </i>
-    <i r="1">
-      <x v="1"/>
+    <i>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <pageFields count="2">
     <pageField fld="3" hier="-1"/>
     <pageField fld="18" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Count of Stats Y2" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of LU3_confidence" fld="12" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9989,7 +7433,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{43348E86-B02C-414D-AD9A-4C75EF1DBC50}" name="PivotTable31" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="BE19:BH26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
@@ -10159,500 +7603,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8143391-F066-4724-8592-D3312A1E5CAE}" name="PivotTable27" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="AS4:AV11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="23"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU6_confidence" fld="23" subtotal="count" baseField="23" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A14E7EAE-4CDA-489A-B1C9-6E07A4E20AB6}" name="PivotTable19" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="U4:X11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="12"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU3_confidence" fld="12" subtotal="count" baseField="1" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2D563D1-A901-4CE0-8E87-4B3429D79ECA}" name="PivotTable26" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="AN4:AQ12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="7">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="21"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="18" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of LU6" fld="21" subtotal="count" baseField="21" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{60F042BC-8269-47B1-B9FD-BE13B25A94B5}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="D4:G11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
@@ -10847,7 +7798,2350 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3C49A497-8934-419F-9CE9-E5A7FCBD4F9C}" name="PivotTable35" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="BQ4:BT11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="31"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU8_confidence" fld="31" subtotal="count" baseField="31" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{199D6D3D-BC32-45D6-8C24-693C7AD2F7B4}" name="PivotTable24" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="AS19:AV36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="1"/>
+        <item x="2"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="4"/>
+        <item x="0"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="21"/>
+    <field x="23"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU6_confidence" fld="23" subtotal="count" baseField="23" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{383872E7-6953-4D62-8310-8E144C7DD935}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A72:C94" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="8"/>
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Count of LU2_confidence" fld="8" subtotal="count" baseField="0" baseItem="380857024"/>
+    <dataField name="Count of LU3_confidence" fld="12" subtotal="count" baseField="8" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF122462-739E-4496-ACB6-38E514DAF792}" name="PivotTable28" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="BE4:BH11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="27"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU7_confidence" fld="27" subtotal="count" baseField="27" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4BDCCA0-7B02-4C4B-A6C6-4E9B420A3D87}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="U19:X26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU3_confidence" fld="12" subtotal="count" baseField="12" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{913AF7B1-6992-4A82-AB5C-5A09A0C97B59}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="I4:L11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU2_confidence" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C1B86F3-EE5B-4616-9101-7FDD1093349F}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A32:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" dataField="1" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item sd="0" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Stats Y2" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C83BDCB7-6EAF-463E-89C9-2B5738B1FCEB}" name="PivotTable20" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="AH4:AK11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="16"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU4_confidence" fld="16" subtotal="count" baseField="16" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DC887956-AEDD-4F14-9A95-B959B0D2A0DC}" name="PivotTable25" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="AN19:AQ23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="22"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU6_correct" fld="22" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{753677C3-F058-4148-92A6-0A8DDFED1270}" name="PivotTable29" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="AZ4:BC12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="25"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU7" fld="25" subtotal="count" baseField="25" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F7450B8F-B8A0-428A-9A71-04598C328E99}" name="PivotTable23" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="AH19:AK26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="16"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU4_confidence" fld="16" subtotal="count" baseField="16" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D9F6B5D-D916-4A8D-B1B7-DEBA13F4B25F}" name="PivotTable14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D19:G23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU2" fld="6" subtotal="count" baseField="0" baseItem="284"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A2D563D1-A901-4CE0-8E87-4B3429D79ECA}" name="PivotTable26" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="AN4:AQ12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="21"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU6" fld="21" subtotal="count" baseField="21" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B193623-1178-4319-8CF0-98BAD355A952}" name="PivotTable15" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="I19:L26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU2_confidence" fld="8" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable30.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0A5EA1E-D9BB-4071-B965-98DE67CAA412}" name="PivotTable17" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="P19:S23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
@@ -10991,21 +10285,21 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68DA7C70-E3C5-4FC4-ADD1-908AE84FDB96}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G38:H41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80ABE4A1-8637-48F3-97B8-8664E12B5469}" name="PivotTable34" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="BL4:BO14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="34">
-    <pivotField showAll="0" sortType="descending">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="3">
         <item x="0"/>
-        <item sd="0" x="1"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
-        <item x="0"/>
         <item sd="0" x="1"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11031,28 +10325,59 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0">
       <items count="3">
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -11066,18 +10391,724 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="29"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU8" fld="29" subtotal="count" baseField="29" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{503D1B91-C427-4CF0-A963-D72BDB419271}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A50:D58" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
       <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
         <item h="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="15"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU4_correct" fld="15" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{049FBBEA-F529-44AE-A609-F027E0573601}" name="PivotTable18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="P4:S14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="11"/>
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU3" fld="10" subtotal="count" baseField="10" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2F6F9F3-ADA3-4059-8359-C3B361DB3FFE}" name="PivotTable22" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="AC19:AF23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="15"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="18" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of LU4_correct" fld="15" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{059ACBAC-A9B5-47CF-BE3C-3171817CB7CF}" name="PivotTable33" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="BL19:BO23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="34">
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -11106,13 +11137,23 @@
       <x/>
     </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="3" hier="-1"/>
     <pageField fld="18" hier="-1"/>
-    <pageField fld="22" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of LU8_correct" fld="30" subtotal="count" baseField="0" baseItem="0"/>
@@ -11130,20 +11171,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{059ACBAC-A9B5-47CF-BE3C-3171817CB7CF}" name="PivotTable33" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="BL19:BO23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68DA7C70-E3C5-4FC4-ADD1-908AE84FDB96}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G38:H41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="34">
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
+    <pivotField showAll="0" sortType="descending">
       <items count="3">
         <item x="0"/>
-        <item x="1"/>
+        <item sd="0" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="3">
+        <item x="0"/>
         <item sd="0" x="1"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11169,32 +11210,18 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
         <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -11219,23 +11246,17 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+        <item h="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -11264,23 +11285,13 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="3" hier="-1"/>
     <pageField fld="18" hier="-1"/>
+    <pageField fld="22" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Count of LU8_correct" fld="30" subtotal="count" baseField="0" baseItem="0"/>
@@ -16597,33 +16608,33 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="143.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="94.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="94.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="117.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="106.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="95.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="101.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="101.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.88671875" customWidth="1"/>
     <col min="27" max="27" width="14" customWidth="1"/>
     <col min="28" max="28" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="155.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="88.88671875" bestFit="1" customWidth="1"/>
@@ -16653,82 +16664,82 @@
         <v>227</v>
       </c>
       <c r="H1" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="I1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P1" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="Q1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="R1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="T1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="U1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="V1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="W1" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="X1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Y1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Z1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AA1" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="AB1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AC1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AD1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AE1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="AF1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AG1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -21935,7 +21946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D24EC52-D119-4C83-86FD-F2AD5EBE1A32}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="64" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -21946,22 +21957,22 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -21999,7 +22010,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="I2" s="21">
         <v>3</v>
@@ -22037,7 +22048,7 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="I3">
         <v>9</v>
@@ -22075,7 +22086,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="I4" s="21">
         <v>16</v>
@@ -22113,7 +22124,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="I5">
         <v>9</v>
@@ -22151,7 +22162,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="I6" s="21">
         <v>14</v>
@@ -22189,7 +22200,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="I7">
         <v>19</v>
@@ -23197,8 +23208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30493275-168B-4CB5-9904-19906AC9AF6C}">
   <dimension ref="A1:BT94"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23212,10 +23223,9 @@
     <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="29" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -23224,22 +23234,22 @@
     <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -23358,13 +23368,13 @@
     </row>
     <row r="2" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B2" s="6">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E2" s="6">
         <v>7</v>
@@ -23372,13 +23382,13 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="I2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J2" s="6">
         <v>7</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q2" s="6">
         <v>7</v>
@@ -23386,13 +23396,13 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="U2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="V2" s="6">
         <v>7</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AD2" s="6">
         <v>7</v>
@@ -23400,13 +23410,13 @@
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
       <c r="AH2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AI2" s="6">
         <v>7</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AO2" s="6">
         <v>7</v>
@@ -23414,13 +23424,13 @@
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
       <c r="AS2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AT2" s="6">
         <v>7</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BA2" s="6">
         <v>7</v>
@@ -23428,13 +23438,13 @@
       <c r="BB2" s="6"/>
       <c r="BC2" s="6"/>
       <c r="BE2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BF2" s="6">
         <v>7</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BM2" s="6">
         <v>7</v>
@@ -23442,7 +23452,7 @@
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
       <c r="BQ2" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BR2" s="6">
         <v>7</v>
@@ -23450,82 +23460,82 @@
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ4" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="BA4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="BF4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="BL4" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS4" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AT4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ4" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="BA4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE4" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF4" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL4" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="BM4" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="BQ4" s="5" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="BR4" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:72" x14ac:dyDescent="0.3">
@@ -23536,19 +23546,19 @@
         <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J5" t="s">
         <v>176</v>
@@ -23557,10 +23567,10 @@
         <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Q5" t="s">
         <v>36</v>
@@ -23569,10 +23579,10 @@
         <v>57</v>
       </c>
       <c r="S5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="V5" t="s">
         <v>176</v>
@@ -23581,10 +23591,10 @@
         <v>37</v>
       </c>
       <c r="X5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AD5" t="s">
         <v>36</v>
@@ -23593,10 +23603,10 @@
         <v>57</v>
       </c>
       <c r="AF5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AI5" t="s">
         <v>176</v>
@@ -23605,10 +23615,10 @@
         <v>37</v>
       </c>
       <c r="AK5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AO5" t="s">
         <v>36</v>
@@ -23617,10 +23627,10 @@
         <v>57</v>
       </c>
       <c r="AQ5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AS5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AT5" t="s">
         <v>176</v>
@@ -23629,10 +23639,10 @@
         <v>37</v>
       </c>
       <c r="AV5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="BA5" t="s">
         <v>36</v>
@@ -23641,10 +23651,10 @@
         <v>57</v>
       </c>
       <c r="BC5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BE5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="BF5" t="s">
         <v>176</v>
@@ -23653,10 +23663,10 @@
         <v>37</v>
       </c>
       <c r="BH5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BL5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="BM5" t="s">
         <v>36</v>
@@ -23665,10 +23675,10 @@
         <v>57</v>
       </c>
       <c r="BO5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BQ5" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="BR5" t="s">
         <v>176</v>
@@ -23677,7 +23687,7 @@
         <v>37</v>
       </c>
       <c r="BT5" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:72" x14ac:dyDescent="0.3">
@@ -23712,7 +23722,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q6">
         <v>17</v>
@@ -23864,7 +23874,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>24</v>
@@ -24397,7 +24407,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="E11">
         <v>52</v>
@@ -24409,7 +24419,7 @@
         <v>55</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="J11">
         <v>18</v>
@@ -24433,7 +24443,7 @@
         <v>3</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="V11">
         <v>18</v>
@@ -24454,7 +24464,7 @@
         <v>1</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AI11">
         <v>18</v>
@@ -24475,7 +24485,7 @@
         <v>1</v>
       </c>
       <c r="AS11" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AT11">
         <v>18</v>
@@ -24496,7 +24506,7 @@
         <v>1</v>
       </c>
       <c r="BE11" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BF11">
         <v>18</v>
@@ -24517,7 +24527,7 @@
         <v>2</v>
       </c>
       <c r="BQ11" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BR11">
         <v>18</v>
@@ -24561,7 +24571,7 @@
         <v>2</v>
       </c>
       <c r="AN12" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AO12">
         <v>41</v>
@@ -24573,7 +24583,7 @@
         <v>55</v>
       </c>
       <c r="AZ12" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BA12">
         <v>41</v>
@@ -24596,7 +24606,7 @@
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -24611,7 +24621,7 @@
         <v>1</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AD13">
         <v>41</v>
@@ -24643,7 +24653,7 @@
         <v>11</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="Q14">
         <v>41</v>
@@ -24655,7 +24665,7 @@
         <v>55</v>
       </c>
       <c r="BL14" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BM14">
         <v>41</v>
@@ -24669,7 +24679,7 @@
     </row>
     <row r="15" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -24763,7 +24773,7 @@
     </row>
     <row r="17" spans="1:72" x14ac:dyDescent="0.3">
       <c r="D17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E17" s="6">
         <v>7</v>
@@ -24771,13 +24781,13 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="I17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J17" s="6">
         <v>7</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="6">
         <v>7</v>
@@ -24785,13 +24795,13 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="U17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="V17" s="6">
         <v>7</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AD17" s="6">
         <v>7</v>
@@ -24799,13 +24809,13 @@
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
       <c r="AH17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AI17" s="6">
         <v>7</v>
       </c>
       <c r="AN17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AO17" s="6">
         <v>7</v>
@@ -24813,13 +24823,13 @@
       <c r="AP17" s="6"/>
       <c r="AQ17" s="6"/>
       <c r="AS17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AT17" s="6">
         <v>7</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BA17" s="6">
         <v>7</v>
@@ -24827,13 +24837,13 @@
       <c r="BB17" s="6"/>
       <c r="BC17" s="6"/>
       <c r="BE17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BF17" s="6">
         <v>7</v>
       </c>
       <c r="BL17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BM17" s="6">
         <v>7</v>
@@ -24841,7 +24851,7 @@
       <c r="BN17" s="6"/>
       <c r="BO17" s="6"/>
       <c r="BQ17" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BR17" s="6">
         <v>7</v>
@@ -24849,93 +24859,93 @@
     </row>
     <row r="19" spans="1:72" x14ac:dyDescent="0.3">
       <c r="D19" s="5" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="P19" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH19" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN19" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AT19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AZ19" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="BA19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="BE19" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="Q19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AC19" s="5" t="s">
+      <c r="BF19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="BL19" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="BM19" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="BQ19" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AD19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH19" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AN19" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AO19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS19" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AT19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ19" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="BA19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE19" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="BF19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BL19" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="BM19" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BQ19" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="BR19" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F20" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J20" t="s">
         <v>36</v>
@@ -24944,10 +24954,10 @@
         <v>57</v>
       </c>
       <c r="L20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Q20" t="s">
         <v>36</v>
@@ -24956,10 +24966,10 @@
         <v>57</v>
       </c>
       <c r="S20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="V20" t="s">
         <v>36</v>
@@ -24968,10 +24978,10 @@
         <v>57</v>
       </c>
       <c r="X20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AD20" t="s">
         <v>36</v>
@@ -24980,10 +24990,10 @@
         <v>57</v>
       </c>
       <c r="AF20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AI20" t="s">
         <v>36</v>
@@ -24992,10 +25002,10 @@
         <v>57</v>
       </c>
       <c r="AK20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AO20" t="s">
         <v>36</v>
@@ -25004,10 +25014,10 @@
         <v>57</v>
       </c>
       <c r="AQ20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AS20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AT20" t="s">
         <v>36</v>
@@ -25016,10 +25026,10 @@
         <v>57</v>
       </c>
       <c r="AV20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AZ20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="BA20" t="s">
         <v>36</v>
@@ -25028,10 +25038,10 @@
         <v>57</v>
       </c>
       <c r="BC20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BE20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="BF20" t="s">
         <v>36</v>
@@ -25040,10 +25050,10 @@
         <v>57</v>
       </c>
       <c r="BH20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BL20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="BM20" t="s">
         <v>36</v>
@@ -25052,10 +25062,10 @@
         <v>57</v>
       </c>
       <c r="BO20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BQ20" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="BR20" t="s">
         <v>36</v>
@@ -25064,7 +25074,7 @@
         <v>57</v>
       </c>
       <c r="BT20" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.3">
@@ -25093,7 +25103,7 @@
         <v>3</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q21">
         <v>17</v>
@@ -25117,7 +25127,7 @@
         <v>9</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AD21">
         <v>10</v>
@@ -25141,7 +25151,7 @@
         <v>16</v>
       </c>
       <c r="AN21" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AO21">
         <v>7</v>
@@ -25165,7 +25175,7 @@
         <v>9</v>
       </c>
       <c r="AZ21" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="BA21">
         <v>27</v>
@@ -25189,7 +25199,7 @@
         <v>14</v>
       </c>
       <c r="BL21" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="BM21">
         <v>4</v>
@@ -25239,7 +25249,7 @@
         <v>5</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q22">
         <v>24</v>
@@ -25263,7 +25273,7 @@
         <v>18</v>
       </c>
       <c r="AC22" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AD22">
         <v>31</v>
@@ -25287,7 +25297,7 @@
         <v>17</v>
       </c>
       <c r="AN22" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO22">
         <v>34</v>
@@ -25311,7 +25321,7 @@
         <v>12</v>
       </c>
       <c r="AZ22" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BA22">
         <v>14</v>
@@ -25335,7 +25345,7 @@
         <v>14</v>
       </c>
       <c r="BL22" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="BM22">
         <v>37</v>
@@ -25361,7 +25371,7 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.3">
       <c r="D23" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="E23">
         <v>52</v>
@@ -25385,7 +25395,7 @@
         <v>11</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="Q23">
         <v>41</v>
@@ -25409,7 +25419,7 @@
         <v>16</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AD23">
         <v>41</v>
@@ -25433,7 +25443,7 @@
         <v>13</v>
       </c>
       <c r="AN23" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AO23">
         <v>41</v>
@@ -25454,7 +25464,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BA23">
         <v>41</v>
@@ -25478,7 +25488,7 @@
         <v>14</v>
       </c>
       <c r="BL23" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BM23">
         <v>41</v>
@@ -25640,7 +25650,7 @@
     </row>
     <row r="26" spans="1:72" x14ac:dyDescent="0.3">
       <c r="I26" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="J26">
         <v>41</v>
@@ -25652,7 +25662,7 @@
         <v>55</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="V26">
         <v>41</v>
@@ -25664,7 +25674,7 @@
         <v>55</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AI26">
         <v>41</v>
@@ -25688,7 +25698,7 @@
         <v>3</v>
       </c>
       <c r="BE26" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BF26">
         <v>41</v>
@@ -25700,7 +25710,7 @@
         <v>55</v>
       </c>
       <c r="BQ26" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="BR26">
         <v>41</v>
@@ -25756,7 +25766,7 @@
     </row>
     <row r="30" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B30" s="6">
         <v>7</v>
@@ -25787,10 +25797,10 @@
     </row>
     <row r="32" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AS32" s="7">
         <v>3</v>
@@ -25807,7 +25817,7 @@
     </row>
     <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -25816,7 +25826,7 @@
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AS33" s="7">
         <v>4</v>
@@ -25868,7 +25878,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H35" s="6">
         <v>7</v>
@@ -25897,13 +25907,13 @@
         <v>19</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="H36" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AS36" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AT36">
         <v>41</v>
@@ -25943,15 +25953,15 @@
         <v>18</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H38" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B39">
         <v>41</v>
@@ -25963,7 +25973,7 @@
         <v>55</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H39">
         <v>6</v>
@@ -25973,7 +25983,7 @@
     </row>
     <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="G40" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H40">
         <v>37</v>
@@ -25983,7 +25993,7 @@
     </row>
     <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="G41" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H41">
         <v>43</v>
@@ -26015,13 +26025,13 @@
     </row>
     <row r="48" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B48" s="6">
         <v>7</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H48" s="6">
         <v>7</v>
@@ -26039,21 +26049,21 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="H50" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
         <v>37</v>
@@ -26062,7 +26072,7 @@
         <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="G51" s="6">
         <v>1</v>
@@ -26093,7 +26103,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -26110,7 +26120,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B54">
         <v>24</v>
@@ -26156,7 +26166,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -26168,13 +26178,13 @@
         <v>4</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M56">
         <v>2.6545454550000001</v>
@@ -26182,7 +26192,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -26194,7 +26204,7 @@
         <v>10</v>
       </c>
       <c r="L57" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M57">
         <v>2.309090909</v>
@@ -26202,7 +26212,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B58">
         <v>37</v>
@@ -26216,7 +26226,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L59" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M59">
         <v>2.690909091</v>
@@ -26224,7 +26234,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L60" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M60">
         <v>2.4909090909999998</v>
@@ -26232,7 +26242,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L61" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M61">
         <v>2.2545454550000001</v>
@@ -26248,7 +26258,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B70" s="6">
         <v>7</v>
@@ -26256,13 +26266,13 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -26498,7 +26508,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B94">
         <v>55</v>
@@ -26531,16 +26541,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
